--- a/daily_trend_lga.xlsx
+++ b/daily_trend_lga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCTRIS ADMIN\Dropbox\GitHub Sync\LVASA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F8AEE6-B48D-495C-A622-E22061CFABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B110CDE7-3752-4986-95D5-6A99E34F604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>

--- a/daily_trend_lga.xlsx
+++ b/daily_trend_lga.xlsx
@@ -1,159 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCTRIS ADMIN\Dropbox\GitHub Sync\LVASA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B110CDE7-3752-4986-95D5-6A99E34F604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>lga_name</t>
-  </si>
-  <si>
-    <t>day_1</t>
-  </si>
-  <si>
-    <t>day_2</t>
-  </si>
-  <si>
-    <t>day_3</t>
-  </si>
-  <si>
-    <t>day_4</t>
-  </si>
-  <si>
-    <t>day_5</t>
-  </si>
-  <si>
-    <t>day_6</t>
-  </si>
-  <si>
-    <t>day_7</t>
-  </si>
-  <si>
-    <t>day_8</t>
-  </si>
-  <si>
-    <t>day_9</t>
-  </si>
-  <si>
-    <t>day_10</t>
-  </si>
-  <si>
-    <t>day_11</t>
-  </si>
-  <si>
-    <t>day_12</t>
-  </si>
-  <si>
-    <t>day_13</t>
-  </si>
-  <si>
-    <t>day_14</t>
-  </si>
-  <si>
-    <t>day_15</t>
-  </si>
-  <si>
-    <t>day_16</t>
-  </si>
-  <si>
-    <t>overall_mean</t>
-  </si>
-  <si>
-    <t>Ibeju-Lekki</t>
-  </si>
-  <si>
-    <t>Alimosho</t>
-  </si>
-  <si>
-    <t>Badagry</t>
-  </si>
-  <si>
-    <t>Somolu</t>
-  </si>
-  <si>
-    <t>Lagos Mainland</t>
-  </si>
-  <si>
-    <t>Agege</t>
-  </si>
-  <si>
-    <t>Surulere</t>
-  </si>
-  <si>
-    <t>Oshodi-Isolo</t>
-  </si>
-  <si>
-    <t>Lagos Island</t>
-  </si>
-  <si>
-    <t>Mushin</t>
-  </si>
-  <si>
-    <t>Ajeromi</t>
-  </si>
-  <si>
-    <t>Kosofe</t>
-  </si>
-  <si>
-    <t>Amuwo odofin</t>
-  </si>
-  <si>
-    <t>Epe</t>
-  </si>
-  <si>
-    <t>Ikeja</t>
-  </si>
-  <si>
-    <t>Ikorodu</t>
-  </si>
-  <si>
-    <t>Apapa</t>
-  </si>
-  <si>
-    <t>Ojo</t>
-  </si>
-  <si>
-    <t>Eti-Osa</t>
-  </si>
-  <si>
-    <t>Ifako-Ijaiye</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -322,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,80 +350,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>lga_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>day_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>day_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>day_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>day_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>day_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>day_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>day_7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day_8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>day_9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>day_10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day_11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day_12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>day_13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>day_14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>day_15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>day_16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>day_17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>overall_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
       </c>
       <c r="B2">
         <v>0</v>
@@ -622,13 +509,14 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f>ROUND(AVERAGE(B2:Q2),0)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
       </c>
       <c r="B3">
         <v>0</v>
@@ -676,16 +564,17 @@
         <v>85</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R21" si="0">ROUND(AVERAGE(B3:Q3),0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
       </c>
       <c r="B4">
         <v>2</v>
@@ -733,16 +622,17 @@
         <v>87</v>
       </c>
       <c r="Q4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Somolu</t>
+        </is>
       </c>
       <c r="B5">
         <v>3</v>
@@ -793,13 +683,14 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
       </c>
       <c r="B6">
         <v>44</v>
@@ -850,13 +741,14 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
       </c>
       <c r="B7">
         <v>2</v>
@@ -901,19 +793,20 @@
         <v>101</v>
       </c>
       <c r="P7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
       </c>
       <c r="B8">
         <v>29</v>
@@ -964,13 +857,14 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
       </c>
       <c r="B9">
         <v>89</v>
@@ -1021,13 +915,14 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lagos Island</t>
+        </is>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1078,13 +973,14 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
       </c>
       <c r="B11">
         <v>27</v>
@@ -1135,13 +1031,14 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
       </c>
       <c r="B12">
         <v>32</v>
@@ -1177,10 +1074,10 @@
         <v>79</v>
       </c>
       <c r="M12">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1192,13 +1089,14 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1249,13 +1147,14 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
       </c>
       <c r="B14">
         <v>15</v>
@@ -1303,16 +1202,17 @@
         <v>37</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1363,13 +1263,14 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ikeja</t>
+        </is>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1420,13 +1321,14 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
       </c>
       <c r="B17">
         <v>35</v>
@@ -1474,16 +1376,17 @@
         <v>97</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1528,19 +1431,20 @@
         <v>86</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
       </c>
       <c r="B19">
         <v>20</v>
@@ -1591,13 +1495,14 @@
         <v>80</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
       </c>
       <c r="B20">
         <v>230</v>
@@ -1639,22 +1544,23 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
       </c>
       <c r="B21">
         <v>70</v>
@@ -1699,14 +1605,13 @@
         <v>47</v>
       </c>
       <c r="P21">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/daily_trend_lga.xlsx
+++ b/daily_trend_lga.xlsx
@@ -1,21 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCTRIS ADMIN\Dropbox\GitHub Sync\LVASA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AAA916-1BED-4CA6-A549-98520ABBC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>lga_name</t>
+  </si>
+  <si>
+    <t>day_1</t>
+  </si>
+  <si>
+    <t>day_2</t>
+  </si>
+  <si>
+    <t>day_3</t>
+  </si>
+  <si>
+    <t>day_4</t>
+  </si>
+  <si>
+    <t>day_5</t>
+  </si>
+  <si>
+    <t>day_6</t>
+  </si>
+  <si>
+    <t>day_7</t>
+  </si>
+  <si>
+    <t>day_8</t>
+  </si>
+  <si>
+    <t>day_9</t>
+  </si>
+  <si>
+    <t>day_10</t>
+  </si>
+  <si>
+    <t>day_11</t>
+  </si>
+  <si>
+    <t>day_12</t>
+  </si>
+  <si>
+    <t>day_13</t>
+  </si>
+  <si>
+    <t>day_14</t>
+  </si>
+  <si>
+    <t>day_15</t>
+  </si>
+  <si>
+    <t>day_16</t>
+  </si>
+  <si>
+    <t>day_17</t>
+  </si>
+  <si>
+    <t>day_18</t>
+  </si>
+  <si>
+    <t>day_19</t>
+  </si>
+  <si>
+    <t>Ibeju-Lekki</t>
+  </si>
+  <si>
+    <t>Alimosho</t>
+  </si>
+  <si>
+    <t>Badagry</t>
+  </si>
+  <si>
+    <t>Somolu</t>
+  </si>
+  <si>
+    <t>Lagos Mainland</t>
+  </si>
+  <si>
+    <t>Agege</t>
+  </si>
+  <si>
+    <t>Surulere</t>
+  </si>
+  <si>
+    <t>Oshodi-Isolo</t>
+  </si>
+  <si>
+    <t>Lagos Island</t>
+  </si>
+  <si>
+    <t>Mushin</t>
+  </si>
+  <si>
+    <t>Ajeromi</t>
+  </si>
+  <si>
+    <t>Kosofe</t>
+  </si>
+  <si>
+    <t>Amuwo odofin</t>
+  </si>
+  <si>
+    <t>Epe</t>
+  </si>
+  <si>
+    <t>Ikeja</t>
+  </si>
+  <si>
+    <t>Ikorodu</t>
+  </si>
+  <si>
+    <t>Apapa</t>
+  </si>
+  <si>
+    <t>Ojo</t>
+  </si>
+  <si>
+    <t>Eti-Osa</t>
+  </si>
+  <si>
+    <t>Ifako-Ijaiye</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +194,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,115 +491,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>lga_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>day_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>day_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>day_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>day_4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>day_5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>day_6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>day_7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>day_8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>day_9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>day_10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>day_11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>day_12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>day_13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>day_14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>day_15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>day_16</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>day_17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>overall_mean</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ibeju-Lekki</t>
-        </is>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -511,12 +622,16 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alimosho</t>
-        </is>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -569,12 +684,16 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Badagry</t>
-        </is>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -625,14 +744,18 @@
         <v>32</v>
       </c>
       <c r="R4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Somolu</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="S4">
+        <v>25</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -685,12 +808,16 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lagos Mainland</t>
-        </is>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
       </c>
       <c r="B6">
         <v>44</v>
@@ -743,12 +870,16 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Agege</t>
-        </is>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -799,14 +930,18 @@
         <v>94</v>
       </c>
       <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Surulere</t>
-        </is>
+        <v>101</v>
+      </c>
+      <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
         <v>29</v>
@@ -859,12 +994,16 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Oshodi-Isolo</t>
-        </is>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
       </c>
       <c r="B9">
         <v>89</v>
@@ -917,12 +1056,16 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lagos Island</t>
-        </is>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -975,12 +1118,16 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mushin</t>
-        </is>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -1033,12 +1180,16 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ajeromi</t>
-        </is>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
       </c>
       <c r="B12">
         <v>32</v>
@@ -1091,12 +1242,16 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Kosofe</t>
-        </is>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1149,12 +1304,16 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -1205,14 +1364,18 @@
         <v>19</v>
       </c>
       <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Epe</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1265,12 +1428,16 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ikeja</t>
-        </is>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1323,12 +1490,16 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ikorodu</t>
-        </is>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -1379,14 +1550,18 @@
         <v>97</v>
       </c>
       <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Apapa</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="S17">
+        <v>176</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1437,14 +1612,18 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ojo</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -1495,14 +1674,18 @@
         <v>80</v>
       </c>
       <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Eti-Osa</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>13</v>
+      </c>
+      <c r="T19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
       </c>
       <c r="B20">
         <v>230</v>
@@ -1544,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1553,14 +1736,18 @@
         <v>9</v>
       </c>
       <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ifako-Ijaiye</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>30</v>
+      </c>
+      <c r="T20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
       </c>
       <c r="B21">
         <v>70</v>
@@ -1611,6 +1798,12 @@
         <v>66</v>
       </c>
       <c r="R21">
+        <v>56</v>
+      </c>
+      <c r="S21">
+        <v>30</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
     </row>

--- a/daily_trend_lga.xlsx
+++ b/daily_trend_lga.xlsx
@@ -1,152 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCTRIS ADMIN\Dropbox\GitHub Sync\LVASA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AAA916-1BED-4CA6-A549-98520ABBC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>lga_name</t>
-  </si>
-  <si>
-    <t>day_1</t>
-  </si>
-  <si>
-    <t>day_2</t>
-  </si>
-  <si>
-    <t>day_3</t>
-  </si>
-  <si>
-    <t>day_4</t>
-  </si>
-  <si>
-    <t>day_5</t>
-  </si>
-  <si>
-    <t>day_6</t>
-  </si>
-  <si>
-    <t>day_7</t>
-  </si>
-  <si>
-    <t>day_8</t>
-  </si>
-  <si>
-    <t>day_9</t>
-  </si>
-  <si>
-    <t>day_10</t>
-  </si>
-  <si>
-    <t>day_11</t>
-  </si>
-  <si>
-    <t>day_12</t>
-  </si>
-  <si>
-    <t>day_13</t>
-  </si>
-  <si>
-    <t>day_14</t>
-  </si>
-  <si>
-    <t>day_15</t>
-  </si>
-  <si>
-    <t>day_16</t>
-  </si>
-  <si>
-    <t>day_17</t>
-  </si>
-  <si>
-    <t>day_18</t>
-  </si>
-  <si>
-    <t>day_19</t>
-  </si>
-  <si>
-    <t>Ibeju-Lekki</t>
-  </si>
-  <si>
-    <t>Alimosho</t>
-  </si>
-  <si>
-    <t>Badagry</t>
-  </si>
-  <si>
-    <t>Somolu</t>
-  </si>
-  <si>
-    <t>Lagos Mainland</t>
-  </si>
-  <si>
-    <t>Agege</t>
-  </si>
-  <si>
-    <t>Surulere</t>
-  </si>
-  <si>
-    <t>Oshodi-Isolo</t>
-  </si>
-  <si>
-    <t>Lagos Island</t>
-  </si>
-  <si>
-    <t>Mushin</t>
-  </si>
-  <si>
-    <t>Ajeromi</t>
-  </si>
-  <si>
-    <t>Kosofe</t>
-  </si>
-  <si>
-    <t>Amuwo odofin</t>
-  </si>
-  <si>
-    <t>Epe</t>
-  </si>
-  <si>
-    <t>Ikeja</t>
-  </si>
-  <si>
-    <t>Ikorodu</t>
-  </si>
-  <si>
-    <t>Apapa</t>
-  </si>
-  <si>
-    <t>Ojo</t>
-  </si>
-  <si>
-    <t>Eti-Osa</t>
-  </si>
-  <si>
-    <t>Ifako-Ijaiye</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -280,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,85 +350,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>lga_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>day_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>day_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>day_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>day_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>day_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>day_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>day_7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day_8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>day_9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>day_10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day_11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day_12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>day_13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>day_14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>day_15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>day_16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>day_17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>day_18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>day_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
       </c>
       <c r="B2">
         <v>0</v>
@@ -608,10 +502,10 @@
         <v>198</v>
       </c>
       <c r="N2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -629,9 +523,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>21</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
       </c>
       <c r="B3">
         <v>0</v>
@@ -673,27 +569,29 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="P3">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="Q3">
-        <v>95</v>
+        <v>396</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
       </c>
       <c r="B4">
         <v>2</v>
@@ -732,30 +630,32 @@
         <v>94</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="P4">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="Q4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="R4">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Somolu</t>
+        </is>
       </c>
       <c r="B5">
         <v>3</v>
@@ -794,13 +694,13 @@
         <v>110</v>
       </c>
       <c r="N5">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P5">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -815,9 +715,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
       </c>
       <c r="B6">
         <v>44</v>
@@ -856,30 +758,32 @@
         <v>80</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
       </c>
       <c r="B7">
         <v>2</v>
@@ -921,27 +825,29 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="P7">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="Q7">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="R7">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="S7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>26</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
       </c>
       <c r="B8">
         <v>29</v>
@@ -980,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="O8">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1001,9 +907,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
       </c>
       <c r="B9">
         <v>89</v>
@@ -1042,10 +950,10 @@
         <v>166</v>
       </c>
       <c r="N9">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="O9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1063,9 +971,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>28</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lagos Island</t>
+        </is>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1125,9 +1035,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>29</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
       </c>
       <c r="B11">
         <v>27</v>
@@ -1169,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="P11">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1187,9 +1099,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>30</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
       </c>
       <c r="B12">
         <v>32</v>
@@ -1228,7 +1142,7 @@
         <v>326</v>
       </c>
       <c r="N12">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1249,9 +1163,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>31</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1305,15 +1221,17 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
       </c>
       <c r="B14">
         <v>15</v>
@@ -1355,27 +1273,29 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="P14">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="R14">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="S14">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1414,10 +1334,10 @@
         <v>236</v>
       </c>
       <c r="N15">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="O15">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1435,9 +1355,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>34</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ikeja</t>
+        </is>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1497,9 +1419,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>35</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
       </c>
       <c r="B17">
         <v>35</v>
@@ -1541,27 +1465,29 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="P17">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="Q17">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="R17">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="S17">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>36</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1600,19 +1526,19 @@
         <v>107</v>
       </c>
       <c r="N18">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="O18">
+        <v>251</v>
+      </c>
+      <c r="P18">
+        <v>263</v>
+      </c>
+      <c r="Q18">
         <v>86</v>
       </c>
-      <c r="P18">
-        <v>89</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="R18">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1621,9 +1547,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>37</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
       </c>
       <c r="B19">
         <v>20</v>
@@ -1662,30 +1590,32 @@
         <v>30</v>
       </c>
       <c r="N19">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O19">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="P19">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="Q19">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="T19">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>38</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
       </c>
       <c r="B20">
         <v>230</v>
@@ -1727,27 +1657,29 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
       </c>
       <c r="B21">
         <v>70</v>
@@ -1786,22 +1718,22 @@
         <v>210</v>
       </c>
       <c r="N21">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="O21">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="P21">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="Q21">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="R21">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="S21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T21">
         <v>0</v>

--- a/daily_trend_lga.xlsx
+++ b/daily_trend_lga.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +458,26 @@
           <t>day_19</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>day_20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>day_21</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>day_22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>day_23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +542,18 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,9 +613,21 @@
         <v>207</v>
       </c>
       <c r="S3">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="T3">
+        <v>436</v>
+      </c>
+      <c r="U3">
+        <v>420</v>
+      </c>
+      <c r="V3">
+        <v>223</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
@@ -650,6 +694,18 @@
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -714,6 +770,18 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -770,12 +838,24 @@
         <v>63</v>
       </c>
       <c r="R6">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="S6">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="T6">
+        <v>137</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
@@ -837,9 +917,21 @@
         <v>286</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>176</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
@@ -856,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -889,7 +981,7 @@
         <v>184</v>
       </c>
       <c r="O8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -904,6 +996,18 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
@@ -970,6 +1074,18 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1034,6 +1150,18 @@
       <c r="T10">
         <v>0</v>
       </c>
+      <c r="U10">
+        <v>80</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1098,6 +1226,18 @@
       <c r="T11">
         <v>0</v>
       </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1162,6 +1302,18 @@
       <c r="T12">
         <v>0</v>
       </c>
+      <c r="U12">
+        <v>86</v>
+      </c>
+      <c r="V12">
+        <v>80</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1226,6 +1378,18 @@
       <c r="T13">
         <v>84</v>
       </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>196</v>
+      </c>
+      <c r="X13">
+        <v>78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1285,10 +1449,22 @@
         <v>168</v>
       </c>
       <c r="S14">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="T14">
-        <v>82</v>
+        <v>183</v>
+      </c>
+      <c r="U14">
+        <v>193</v>
+      </c>
+      <c r="V14">
+        <v>205</v>
+      </c>
+      <c r="W14">
+        <v>50</v>
+      </c>
+      <c r="X14">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1354,6 +1530,18 @@
       <c r="T15">
         <v>0</v>
       </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1418,6 +1606,18 @@
       <c r="T16">
         <v>0</v>
       </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1480,6 +1680,18 @@
         <v>352</v>
       </c>
       <c r="T17">
+        <v>184</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
@@ -1544,6 +1756,18 @@
         <v>0</v>
       </c>
       <c r="T18">
+        <v>116</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>0</v>
       </c>
     </row>
@@ -1608,7 +1832,19 @@
         <v>26</v>
       </c>
       <c r="T19">
-        <v>94</v>
+        <v>156</v>
+      </c>
+      <c r="U19">
+        <v>72</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1672,7 +1908,19 @@
         <v>60</v>
       </c>
       <c r="T20">
-        <v>84</v>
+        <v>256</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>194</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1736,6 +1984,18 @@
         <v>60</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>170</v>
+      </c>
+      <c r="V21">
+        <v>220</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>0</v>
       </c>
     </row>
